--- a/data/GEO_subm_sheet_UPEC.xlsx
+++ b/data/GEO_subm_sheet_UPEC.xlsx
@@ -152,12 +152,29 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">"Firstname,Initial,Lastname".
+Example: "John,H,Smith" or "Jane,Doe". 
+Each contributor on a separate line, add as many contributor lines as required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">[optional] 
 If you submit a matrix table containing processed data for all samples, include the file name here.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
+    <comment ref="A23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0">
+    <comment ref="A37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0">
+    <comment ref="A44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0">
+    <comment ref="A46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0">
+    <comment ref="A47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0">
+    <comment ref="A48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0">
+    <comment ref="A49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0">
+    <comment ref="A50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="B23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="C23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0">
+    <comment ref="C54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0">
+    <comment ref="C60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D59" authorId="0">
+    <comment ref="D60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="0">
+    <comment ref="E60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -622,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -637,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -652,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0">
+    <comment ref="H23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -667,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0">
+    <comment ref="I23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0">
+    <comment ref="J23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0">
+    <comment ref="K23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -716,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L22" authorId="0">
+    <comment ref="L23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2118,7 +2135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="176">
   <si>
     <t xml:space="preserve"># High-throughput sequencing metadata template. (Version: April 28, 2020)</t>
   </si>
@@ -2210,7 +2227,25 @@
     <t xml:space="preserve">contributor</t>
   </si>
   <si>
+    <t xml:space="preserve">Linda Popella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phuong Thao Do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakob Jung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lars Barquist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jörg Vogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">supplementary file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counttable.tsv</t>
   </si>
   <si>
     <t xml:space="preserve">SAMPLES</t>
@@ -3143,7 +3178,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3176,14 +3211,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3197,10 +3224,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3225,10 +3248,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3237,14 +3256,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3264,19 +3275,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3367,10 +3370,10 @@
     <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L231"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3427,7 +3430,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3436,7 +3439,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3445,907 +3448,438 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="C10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="11"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="11"/>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="18" t="s">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
+      <c r="D23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="E23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+      <c r="F23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="I23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22"/>
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22"/>
+      <c r="A27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22"/>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22"/>
+      <c r="A30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
+      <c r="A31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="20"/>
-    </row>
-    <row r="33" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+      <c r="A32" s="18"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
+      <c r="A35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
+      <c r="A36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="A37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="24"/>
+      <c r="A38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
+      <c r="A39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>39</v>
+      <c r="A40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>39</v>
+      <c r="A44" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>39</v>
+      <c r="A45" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="20"/>
+      <c r="A46" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
+      <c r="A47" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
+      <c r="A48" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
+      <c r="A49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-    </row>
-    <row r="51" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="s">
-        <v>42</v>
-      </c>
+      <c r="A50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20"/>
-    </row>
-    <row r="55" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20"/>
-    </row>
-    <row r="56" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20"/>
-    </row>
-    <row r="57" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25" t="s">
-        <v>47</v>
-      </c>
+      <c r="A52" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
     </row>
     <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="27"/>
-    </row>
-    <row r="59" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="28" t="s">
+      <c r="A58" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F59" s="28"/>
-    </row>
-    <row r="60" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="25" t="s">
+      <c r="B60" s="22" t="s">
         <v>51</v>
       </c>
-    </row>
+      <c r="C60" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="64" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8"/>
-    </row>
+      <c r="A64" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4364,22 +3898,22 @@
     <tabColor rgb="FFC00000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O235"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="28.71"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +3964,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -4440,7 +3974,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -4450,1205 +3984,716 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="B11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="18" t="s">
+    <row r="17" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="E20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="G20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="H20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="I20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="J20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="C21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="F21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="20" t="s">
+      <c r="G22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" s="20" t="s">
+      <c r="H22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="J23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="20" t="s">
+      <c r="M23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22"/>
+      <c r="A25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="20"/>
+      <c r="A26" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="A28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
+      <c r="A29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="A30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="A31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>35</v>
+      <c r="A32" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>39</v>
+      <c r="A37" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-    </row>
-    <row r="46" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" s="31" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" s="31" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20"/>
-    </row>
-    <row r="58" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="27"/>
-    </row>
-    <row r="60" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="28"/>
-    </row>
-    <row r="61" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="8"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="8"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="8"/>
-    </row>
+      <c r="C64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A19:I19"/>
@@ -5670,10 +4715,10 @@
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R238"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5685,7 +4730,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5731,7 +4776,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -5740,7 +4785,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -5749,1295 +4794,805 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="B11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="B14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="11"/>
+      <c r="B16" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="11"/>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="18" t="s">
+    <row r="20" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="D23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="E23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="F23" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M24" s="20" t="s">
+      <c r="K23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C24" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="N24" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="20" t="s">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M25" s="20" t="s">
+      <c r="G25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N25" s="33" t="s">
+      <c r="H25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O25" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="P25" s="34"/>
-    </row>
-    <row r="26" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="32" t="s">
+      <c r="K25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="O26" s="20" t="s">
+      <c r="M25" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="N25" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="26"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>146</v>
+      <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>68</v>
+        <v>137</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>132</v>
+        <v>76</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="20"/>
+      <c r="A29" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+      <c r="A31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="A32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+      <c r="A33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+      <c r="A34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>35</v>
+      <c r="A35" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>39</v>
+      <c r="A40" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" s="24"/>
+    </row>
+    <row r="62" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="24"/>
+    </row>
+    <row r="63" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="24"/>
+    </row>
+    <row r="64" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="24"/>
+    </row>
+    <row r="65" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" s="24"/>
+    </row>
+    <row r="66" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" s="24"/>
+    </row>
+    <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="20"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-    </row>
-    <row r="49" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20" t="s">
+      <c r="B68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="27"/>
-    </row>
-    <row r="60" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="28"/>
-    </row>
-    <row r="61" s="35" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F61" s="31"/>
-    </row>
-    <row r="62" s="35" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F62" s="31"/>
-    </row>
-    <row r="63" s="35" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F63" s="31"/>
-    </row>
-    <row r="64" s="35" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F64" s="31"/>
-    </row>
-    <row r="65" s="35" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F65" s="31"/>
-    </row>
-    <row r="66" s="35" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F66" s="31"/>
-    </row>
-    <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="72" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="B73" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="8"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="8"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="8"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="8"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="8"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="8"/>
-    </row>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A22:I22"/>

--- a/data/GEO_subm_sheet_UPEC.xlsx
+++ b/data/GEO_subm_sheet_UPEC.xlsx
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0">
+    <comment ref="A69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0">
+    <comment ref="A70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0">
+    <comment ref="A71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0">
+    <comment ref="A73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0">
+    <comment ref="A79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0">
+    <comment ref="A80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0">
+    <comment ref="A81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0">
+    <comment ref="A82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0">
+    <comment ref="A83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0">
+    <comment ref="A84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0">
+    <comment ref="B88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0">
+    <comment ref="B94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -498,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0">
+    <comment ref="C88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0">
+    <comment ref="C94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -545,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0">
+    <comment ref="D94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0">
+    <comment ref="E94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,26 +665,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Replace 'tag' with a biosource characteristic (e.g. "strain", "tissue", "developmental stage", "tumor stage", etc), and then enter the value for each sample beneath (e.g. "129SV", "brain", "embryo", etc). You may add multiple characteristics columns to this template (as presented in EXAMPLE 1 worksheet).</t>
+          <t xml:space="preserve">Type of molecule that was extracted from the biological material. Include one of the following: total RNA, polyA RNA, cytoplasmic RNA, nuclear RNA, genomic DNA, protein, or other.</t>
         </r>
       </text>
     </comment>
     <comment ref="H23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Type of molecule that was extracted from the biological material. Include one of the following: total RNA, polyA RNA, cytoplasmic RNA, nuclear RNA, genomic DNA, protein, or other.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -700,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0">
+    <comment ref="I23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -716,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0">
+    <comment ref="J23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -733,7 +718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0">
+    <comment ref="K23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2135,7 +2120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="444">
   <si>
     <t xml:space="preserve"># High-throughput sequencing metadata template. (Version: April 28, 2020)</t>
   </si>
@@ -2430,10 +2415,34 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">tag</t>
+      <t xml:space="preserve">strain</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">characteristics: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">treatment</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">molecule</t>
   </si>
   <si>
@@ -2449,12 +2458,546 @@
     <t xml:space="preserve">Sample 1</t>
   </si>
   <si>
+    <t xml:space="preserve">acpP_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with acpP PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escherichia coli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">536 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 min exposure to 5 uM PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna21.fq.gz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sample 2</t>
   </si>
   <si>
+    <t xml:space="preserve">acpP-scr_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with scrambled PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">537 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna22.fq.gz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sample 3</t>
   </si>
   <si>
+    <t xml:space="preserve">dnaB_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with dnaB PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">539 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna40.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftsZ_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with ftsZ PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">540 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna41.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpoD_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with rpoD PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">541 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna42.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrH_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with pyrH PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna43.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yidC_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with ydiC PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">543 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna44.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nusG_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with nusG PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">546 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna47.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpsH_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with rpsH PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">547 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna48.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rplS_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with rplS PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna49.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csrA_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with csrA PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">549 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna50.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ispH_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with ispH PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_JVpna93.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPEC with water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">551 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water-treated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_w_o_control.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">552 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100396_1_w_o_control.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acpP-scr_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100397_1_JVpna22.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acpP_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100398_1_JVpna21.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnaB_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">556 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100400_1_JVpna40.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftsZ_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">557 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100401_1_JVpna41.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpoD_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">558 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100402_1_JVpna42.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrH_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">559 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100403_1_JVpna43.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yidC_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100404_1_JVpna44.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nusG_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">563 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100407_1_JVpna47.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpsH_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">564 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100408_1_JVpna48.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rplS_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100409_1_JVpna49.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csrA_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">566 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100410_1_JVpna50.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">567 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100411_2_w_o_control.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acpP-scr_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">568 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100412_2_JVpna22.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acpP_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">569 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100413_2_JVpna21.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnaB_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100415_2_JVpna40.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftsZ_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">572 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100416_2_JVpna41.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpoD_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">573 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100417_2_JVpna42.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrH_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100418_2_JVpna43.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yidC_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">575 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100419_2_JVpna44.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nusG_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">578 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100422_2_JVpna47.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpsH_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100423_2_JVpna48.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rplS_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">580 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100424_2_JVpna49.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csrA_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">581 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2100425_2_JVpna50.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ispH_3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">582 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hash1_Jvpna93.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">583 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hash1_w_o_control.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ispH_3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">584 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hash2_Jvpna93.fq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">585 (UPEC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hash2_w_o_control.fq.gz</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROTOCOLS</t>
   </si>
   <si>
@@ -2464,18 +3007,33 @@
     <t xml:space="preserve">growth protocol</t>
   </si>
   <si>
+    <t xml:space="preserve">The strain was streaked on Luria-Bertani plates and cultured in non-cation adjusted Mueller-Hinton Broth, with aeration at 37°C and 220 rpm shaking.</t>
+  </si>
+  <si>
     <t xml:space="preserve">treatment protocol </t>
   </si>
   <si>
+    <t xml:space="preserve">Bacterial overnight cultures were diluted 1:100 in fresh MHB and grown to an OD600 of 0.5. Subsequently, obtained cultures were again diluted 1:100 in fresh MHB to adjust a cell concentration of approximately 106 cfu/mL. After transferring 1.9 mL of the bacterial solution into 5 mL low-binding tubes (LABsolute), 100 µL of 20x PPNA stock solutions were added to reach a final concentration of 5 µM for all KFF-conjugated PNAs. In parallel, an equal amount of cells was treated with the respective volume of sterile nuclease-free water, which was used as solvent for the test compounds, and served as negative control. After incubating the samples for 15 min at 37 °C, RNAprotect Bacteria (Qiagen) was added according to the manufacturer’s instructions. Following a 10-min incubation, cells were pelleted at 4 °C and 21,100 xg for 20 min. The supernatant was discarded and pellets were either directly used or stored at – 20 °C (&lt; 1 day) for subsequent bacterial RNA isolation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">extract protocol</t>
   </si>
   <si>
+    <t xml:space="preserve">Total RNA was purified from bacterial pellets using the miRNeasy Mini kit (Qiagen) according to the protocol #3 described in Popella et al. (REF). Briefly, cells were resuspended in 0.5 mg/mL lysozyme (Roth) in TE buffer (pH 8.0) and incubated for 5 min. Afterwards, RLT buffer supplemented with β-mercaptoethanol, and ethanol were added according to the manufacturer’s instructions. After sample loading, column wash-steps were performed according to the manual. RNA concentration was measured with a NanoDrop spectrophotometer.</t>
+  </si>
+  <si>
     <t xml:space="preserve">library construction protocol</t>
   </si>
   <si>
+    <t xml:space="preserve">Briefly, samples were treated with DNase (XXX) and quality was checked on a bioanalyzer (RNA chip XXX). Then, RNA was subjected to cDNA library preparation using the Corall kit (Lexogen) and including the depletion of ribosomal RNA (RiboCop-META kit, Lexogen) according to the manufacturer’s instructions. Afterwards, library samples were pooled in equimolar amounts and quality was verified using a bioanalyzer (DNA chip XXX). The cDNA pools were sequenced using the NextSeq 500 system (HighOutput flow cell, 400 M, 1x 75 cycle single-end; Illumina).</t>
+  </si>
+  <si>
     <t xml:space="preserve">library strategy</t>
   </si>
   <si>
+    <t xml:space="preserve">RNA-Seq</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATA PROCESSING PIPELINE</t>
   </si>
   <si>
@@ -2488,9 +3046,24 @@
     <t xml:space="preserve">data processing step</t>
   </si>
   <si>
+    <t xml:space="preserve">Raw RNA-Seq reads were trimmed, filtered and mapped to the UPEC genome. Small RNAs (sRNAs) were additionally added to the UPEC annotation file using a series of bash commands. Briefly, sRNA sequences of Escherichia coli str. K-12 substr. MG1655 were aligned to the UPEC genome using BLASTN (v2.9.0), and the alignment match with the lowest E-value was added as sRNA to the UPEC annotation. All added sRNAs had more than 89% identical matches and the largest number of mismatches was 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then, BBduk was used to trim nucleobases with Phred quality scores below 10 and to remove adapter sequences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next, Reads were mapped against the UPEC genome using BBMap (v38.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resulting alignments were assigned to both coding sequences and sRNAs using the featureCounts methods of the Subread (2.0.1) package.</t>
+  </si>
+  <si>
     <t xml:space="preserve">genome build</t>
   </si>
   <si>
+    <t xml:space="preserve">Escherichia coli 536</t>
+  </si>
+  <si>
     <t xml:space="preserve">processed data files format and content</t>
   </si>
   <si>
@@ -2509,6 +3082,12 @@
     <t xml:space="preserve">file checksum</t>
   </si>
   <si>
+    <t xml:space="preserve">Tab-separated file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a6052a1d64950c18ee02d49f5e5d3ca0</t>
+  </si>
+  <si>
     <t xml:space="preserve"># For each file listed in the "raw file" columns of the SAMPLES section above, provide additional information below.</t>
   </si>
   <si>
@@ -2519,6 +3098,258 @@
   </si>
   <si>
     <t xml:space="preserve">single or paired-end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19870c16fbac76c45b8e8ad83897ed6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ec6d59d48dea8bca1edecb3ce40fb7b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">874f10f03aa39b1e4ce0970493ece914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3b4d954efc5ed770b8bae235707dd268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4e001533929e15c91de3c114fc62b080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30d575b3bf805ad6683a6952e4d7f20f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c9ac59c211ef4dd3cc41e9f36f373cbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0f951d865786834cd920996e39b6f24e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2089b1d9dac0eed9b38716a5c747413c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab0fc2c0e42431e466f708d638612c00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c23d1294c6da318d2c9e1c6546d4ad4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e6766c8ae11b15b76c9fe3497c1141a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f660a467ff6158555a17070acdb90491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0affec3f44c59e88455992368b268ede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c8848be0be3a874885d442803a12e3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4b7db0b1b7f6e921390d319f28e4ac0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc082015278464e4c5f8b3fce681cb49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4a8ce2ccd28a2ca236a4bac9bdfa483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b90cc953577376d6f5616fb0cc7a114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">517f4d2b10c08d03d64d4a3677afa491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2df61e391fbac43ddd632d9d6c1868d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5723e99f1184d32527e6725e0c56469e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b4e11668cbf4c3e6c831a4b14822f72f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9946c6574a1d9a84d751786d7adabacd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f398dd45afbbbe8895dae191d464a5ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a701ad3c428fbe0cfcb1206d5e47e856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b472926f83449ca4889c13bdcc8ad467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4182ad77088480f07f021fde45b15dfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78263a40ae7ba7dcfe8e2777af089976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9f0e4c9c8fc1052d126b2400735f4cb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f971ec85ea71eee7dfe81402230d88bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41dd7405190a729624503f5a9339c209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e8b300ed69945a92eeb74970747ef31a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd20fc8f0c5c279cc20b1b5d48b3f456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5db789be3e1d004bc02f6bcee578e79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b9b614a7ec390cee6133b29d0c993d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e66d83a476d808a872e34d20d22b886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99efcbe9560178d2caa76952b994e362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebf46bcfe74f1c70b30bce70bbad5b4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65dec8084cce21ee82e7a5f245d7f445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e25e820ad1056d803b130faee340404f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IlluminaNextSeq 540</t>
   </si>
   <si>
     <t xml:space="preserve"># For paired-end experiments, list the 2 (or more) fastq files from the same run. For SOLiD experiments, list the 4 file names (include "file name 3" and "file name 4" columns).</t>
@@ -2595,55 +3426,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">strain</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">characteristics: </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">ChIP antibody</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">characteristics: </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">treatment</t>
     </r>
   </si>
   <si>
@@ -2728,9 +3511,6 @@
     <t xml:space="preserve">080717_BI-EAS46_0001_20DH_L5.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Neural progenitor cells - H3K4me2 - ABX-treated</t>
   </si>
   <si>
@@ -2806,16 +3586,10 @@
     <t xml:space="preserve"># For each file listed in the "raw file" columns of the SAMPLES section, provide additional information below.</t>
   </si>
   <si>
-    <t xml:space="preserve">fastq</t>
-  </si>
-  <si>
     <t xml:space="preserve">6cc6ee3cce10b970e5bfea4e35cdb280</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina HiSeq 2500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single</t>
   </si>
   <si>
     <t xml:space="preserve">88ceb0e0d056dda9208a03acf9073571</t>
@@ -2941,9 +3715,6 @@
     <t xml:space="preserve">wild type</t>
   </si>
   <si>
-    <t xml:space="preserve">total RNA</t>
-  </si>
-  <si>
     <t xml:space="preserve">WT1.txt</t>
   </si>
   <si>
@@ -2990,9 +3761,6 @@
   </si>
   <si>
     <t xml:space="preserve">RNA libraries were prepared for sequencing using standard Illumina protocols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA-Seq</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina Casava1.7 software used for basecalling.</t>
@@ -3053,7 +3821,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3109,6 +3877,17 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3178,7 +3957,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3247,6 +4026,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3273,6 +4060,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -3370,83 +4161,101 @@
     <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:AMJ153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="28.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="12" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
@@ -3456,8 +4265,8 @@
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
@@ -3467,8 +4276,8 @@
         <v>10</v>
       </c>
       <c r="C10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
@@ -3476,8 +4285,8 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
@@ -3487,8 +4296,8 @@
         <v>13</v>
       </c>
       <c r="C12" s="9"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
@@ -3498,8 +4307,8 @@
         <v>14</v>
       </c>
       <c r="C13" s="9"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
@@ -3509,8 +4318,8 @@
         <v>15</v>
       </c>
       <c r="C14" s="9"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
@@ -3520,8 +4329,8 @@
         <v>16</v>
       </c>
       <c r="C15" s="9"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
@@ -3531,10 +4340,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="9"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -3542,36 +4351,38 @@
         <v>19</v>
       </c>
       <c r="C17" s="9"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
         <v>23</v>
       </c>
@@ -3582,9 +4393,9 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
         <v>24</v>
       </c>
@@ -3601,285 +4412,2269 @@
         <v>27</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="D39" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="E39" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="G39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="I39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K64" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="20"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AMJ68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AMJ76" s="0"/>
+    </row>
+    <row r="77" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AMJ77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+    </row>
+    <row r="86" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AMJ86" s="0"/>
+    </row>
+    <row r="87" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="AMJ87" s="0"/>
+    </row>
+    <row r="88" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="AMJ88" s="0"/>
+    </row>
+    <row r="89" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AMJ89" s="0"/>
+    </row>
+    <row r="90" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1"/>
+      <c r="AMJ90" s="0"/>
+    </row>
+    <row r="91" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1"/>
+      <c r="AMJ91" s="0"/>
+    </row>
+    <row r="92" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AMJ92" s="0"/>
+    </row>
+    <row r="93" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="23"/>
+      <c r="AMJ93" s="0"/>
+    </row>
+    <row r="94" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F94" s="24"/>
+      <c r="AMJ94" s="0"/>
+    </row>
+    <row r="95" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="B95" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ95" s="0"/>
+    </row>
+    <row r="96" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22" t="s">
+      <c r="B96" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ96" s="0"/>
+    </row>
+    <row r="97" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="22" t="s">
+      <c r="B97" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ97" s="0"/>
+    </row>
+    <row r="98" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="22" t="s">
+      <c r="B98" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ98" s="0"/>
+    </row>
+    <row r="99" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B99" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ99" s="0"/>
+    </row>
+    <row r="100" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ100" s="0"/>
+    </row>
+    <row r="101" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ101" s="0"/>
+    </row>
+    <row r="102" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ102" s="0"/>
+    </row>
+    <row r="103" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ103" s="0"/>
+    </row>
+    <row r="104" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ104" s="0"/>
+    </row>
+    <row r="105" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ105" s="0"/>
+    </row>
+    <row r="106" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ106" s="0"/>
+    </row>
+    <row r="107" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ107" s="0"/>
+    </row>
+    <row r="108" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ108" s="0"/>
+    </row>
+    <row r="109" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ109" s="0"/>
+    </row>
+    <row r="110" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ110" s="0"/>
+    </row>
+    <row r="111" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ111" s="0"/>
+    </row>
+    <row r="112" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ112" s="0"/>
+    </row>
+    <row r="113" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ113" s="0"/>
+    </row>
+    <row r="114" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ114" s="0"/>
+    </row>
+    <row r="115" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ115" s="0"/>
+    </row>
+    <row r="116" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ116" s="0"/>
+    </row>
+    <row r="117" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ117" s="0"/>
+    </row>
+    <row r="118" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ118" s="0"/>
+    </row>
+    <row r="119" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ119" s="0"/>
+    </row>
+    <row r="120" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ120" s="0"/>
+    </row>
+    <row r="121" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ121" s="0"/>
+    </row>
+    <row r="122" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ122" s="0"/>
+    </row>
+    <row r="123" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ123" s="0"/>
+    </row>
+    <row r="124" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ124" s="0"/>
+    </row>
+    <row r="125" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ125" s="0"/>
+    </row>
+    <row r="126" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ126" s="0"/>
+    </row>
+    <row r="127" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ127" s="0"/>
+    </row>
+    <row r="128" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ128" s="0"/>
+    </row>
+    <row r="129" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ129" s="0"/>
+    </row>
+    <row r="130" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ130" s="0"/>
+    </row>
+    <row r="131" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ131" s="0"/>
+    </row>
+    <row r="132" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ132" s="0"/>
+    </row>
+    <row r="133" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ133" s="0"/>
+    </row>
+    <row r="134" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ134" s="0"/>
+    </row>
+    <row r="135" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AMJ135" s="0"/>
+    </row>
+    <row r="136" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="0"/>
+      <c r="D136" s="0"/>
+      <c r="E136" s="0"/>
+      <c r="AMJ136" s="0"/>
+    </row>
+    <row r="137" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="0"/>
+      <c r="D137" s="0"/>
+      <c r="E137" s="0"/>
+      <c r="AMJ137" s="0"/>
+    </row>
+    <row r="138" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="0"/>
+      <c r="D138" s="0"/>
+      <c r="E138" s="0"/>
+      <c r="AMJ138" s="0"/>
+    </row>
+    <row r="139" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="0"/>
+      <c r="D139" s="0"/>
+      <c r="E139" s="0"/>
+      <c r="AMJ139" s="0"/>
+    </row>
+    <row r="140" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ140" s="0"/>
+    </row>
+    <row r="141" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ141" s="0"/>
+    </row>
+    <row r="142" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ142" s="0"/>
+    </row>
+    <row r="143" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ143" s="0"/>
+    </row>
+    <row r="144" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ144" s="0"/>
+    </row>
+    <row r="145" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ145" s="0"/>
+    </row>
+    <row r="146" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="AMJ146" s="0"/>
+    </row>
+    <row r="147" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="AMJ147" s="0"/>
+    </row>
+    <row r="148" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="AMJ148" s="0"/>
+    </row>
+    <row r="149" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ149" s="0"/>
+    </row>
+    <row r="150" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ150" s="0"/>
+    </row>
+    <row r="151" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ151" s="0"/>
+    </row>
+    <row r="152" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ152" s="0"/>
+    </row>
+    <row r="153" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ153" s="0"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3900,20 +6695,24 @@
   </sheetPr>
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="28.71"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,7 +6788,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c r="C9" s="9"/>
       <c r="J9" s="9"/>
@@ -4001,7 +6800,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="C10" s="9"/>
       <c r="J10" s="9"/>
@@ -4013,7 +6812,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>64</v>
+        <v>339</v>
       </c>
       <c r="C11" s="9"/>
       <c r="J11" s="9"/>
@@ -4025,7 +6824,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="C12" s="9"/>
       <c r="J12" s="7"/>
@@ -4037,7 +6836,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>341</v>
       </c>
       <c r="C13" s="9"/>
       <c r="J13" s="7"/>
@@ -4109,258 +6908,258 @@
         <v>26</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>69</v>
+        <v>343</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>71</v>
+        <v>344</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>345</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>76</v>
+        <v>348</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="O21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>356</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>76</v>
+        <v>348</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>84</v>
+        <v>357</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>85</v>
+        <v>358</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>86</v>
+        <v>359</v>
       </c>
       <c r="O22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>76</v>
+        <v>348</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
+        <v>361</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>89</v>
+        <v>362</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="O23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>93</v>
+        <v>365</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>96</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>35</v>
+      <c r="A26" s="21" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+        <v>216</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
+        <v>218</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+        <v>220</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+        <v>222</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,201 +7167,201 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
+        <v>229</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+        <v>234</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
+        <v>236</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+        <v>236</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
+      <c r="C45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>357</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>111</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>358</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>362</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,119 +7373,119 @@
     </row>
     <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>116</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="22"/>
+      <c r="A59" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>119</v>
+        <v>390</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>86</v>
+        <v>359</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>121</v>
+        <v>391</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>119</v>
+        <v>390</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>392</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>119</v>
+        <v>390</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>96</v>
+        <v>368</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>123</v>
+        <v>393</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>119</v>
+        <v>390</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="66" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>60</v>
+      <c r="A68" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="70" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4717,20 +7516,22 @@
   </sheetPr>
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="37.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="43.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="22.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="37.57"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,7 +7600,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>394</v>
       </c>
       <c r="C9" s="9"/>
       <c r="J9" s="9"/>
@@ -4810,7 +7611,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>395</v>
       </c>
       <c r="C10" s="9"/>
       <c r="J10" s="9"/>
@@ -4821,7 +7622,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>396</v>
       </c>
       <c r="C11" s="9"/>
       <c r="J11" s="9"/>
@@ -4832,7 +7633,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>397</v>
       </c>
       <c r="C12" s="9"/>
       <c r="J12" s="9"/>
@@ -4843,7 +7644,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>398</v>
       </c>
       <c r="C13" s="9"/>
       <c r="J13" s="9"/>
@@ -4854,7 +7655,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>129</v>
+        <v>399</v>
       </c>
       <c r="C14" s="9"/>
       <c r="J14" s="9"/>
@@ -4865,7 +7666,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="C15" s="9"/>
       <c r="J15" s="7"/>
@@ -4876,7 +7677,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>131</v>
+        <v>401</v>
       </c>
       <c r="C16" s="9"/>
       <c r="J16" s="7"/>
@@ -4887,7 +7688,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>132</v>
+        <v>402</v>
       </c>
       <c r="C17" s="9"/>
       <c r="J17" s="7"/>
@@ -4946,75 +7747,75 @@
         <v>26</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>133</v>
+        <v>403</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>134</v>
+        <v>404</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>71</v>
+        <v>344</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>137</v>
+        <v>406</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>407</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>138</v>
+        <v>408</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>139</v>
+        <v>409</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>142</v>
+        <v>411</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>143</v>
+        <v>412</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>143</v>
+        <v>412</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -5022,175 +7823,175 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>413</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>137</v>
+        <v>407</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>138</v>
+        <v>408</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>139</v>
+        <v>409</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N25" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="O25" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="P25" s="26"/>
+        <v>414</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="P25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>147</v>
+        <v>46</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>416</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>137</v>
+        <v>407</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>138</v>
+        <v>408</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>139</v>
+        <v>409</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>148</v>
+        <v>417</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>149</v>
+        <v>418</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>150</v>
+        <v>419</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>151</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>152</v>
+        <v>51</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>421</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>407</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>138</v>
+        <v>408</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>139</v>
+        <v>409</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>148</v>
+        <v>417</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>153</v>
+        <v>422</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>154</v>
+        <v>423</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>155</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
-        <v>35</v>
+      <c r="A29" s="21" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
+      <c r="C31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
+        <v>218</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+        <v>220</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
+        <v>426</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,171 +7999,171 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
+        <v>229</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+        <v>234</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
+        <v>236</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
+        <v>236</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
+      <c r="C48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
     </row>
     <row r="49" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>52</v>
+      <c r="A50" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>164</v>
+        <v>432</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>165</v>
+        <v>433</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>166</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>145</v>
+        <v>414</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>165</v>
+        <v>433</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>167</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>149</v>
+        <v>418</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>433</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>422</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>165</v>
+        <v>433</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>168</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>132</v>
+        <v>402</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>169</v>
+        <v>437</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5372,224 +8173,224 @@
     </row>
     <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>116</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60" s="24"/>
+    </row>
+    <row r="61" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>143</v>
+        <v>412</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>170</v>
+        <v>389</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>438</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F61" s="24"/>
-    </row>
-    <row r="62" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+      <c r="F61" s="27"/>
+    </row>
+    <row r="62" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>172</v>
+        <v>440</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>170</v>
+        <v>391</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>438</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F62" s="24"/>
-    </row>
-    <row r="63" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+      <c r="F62" s="27"/>
+    </row>
+    <row r="63" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>146</v>
+        <v>415</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>170</v>
+        <v>392</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>438</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F63" s="24"/>
-    </row>
-    <row r="64" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+      <c r="F63" s="27"/>
+    </row>
+    <row r="64" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>173</v>
+        <v>441</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>170</v>
+        <v>434</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>438</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F64" s="24"/>
-    </row>
-    <row r="65" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+      <c r="F64" s="27"/>
+    </row>
+    <row r="65" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>150</v>
+        <v>419</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>170</v>
+        <v>442</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>438</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F65" s="24"/>
-    </row>
-    <row r="66" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+      <c r="F65" s="27"/>
+    </row>
+    <row r="66" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>151</v>
+        <v>420</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>170</v>
+        <v>386</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>438</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F66" s="24"/>
+        <v>439</v>
+      </c>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>154</v>
+        <v>423</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>170</v>
+        <v>387</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>438</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>171</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>155</v>
+        <v>424</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>170</v>
+        <v>443</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>438</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>171</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>60</v>
+      <c r="A71" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>143</v>
+        <v>412</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>143</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>146</v>
+        <v>415</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>146</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>150</v>
+        <v>419</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>151</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>154</v>
+        <v>423</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>155</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
